--- a/Smiles_codes.xlsx
+++ b/Smiles_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmmbo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbozek\eksploracja_danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F860013-AFE7-4360-970F-79D87032A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD68C5-37BA-44FE-8A22-458B57213005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2016DCB4-9C09-46FC-90D0-7113EBBC9CC0}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{2016DCB4-9C09-46FC-90D0-7113EBBC9CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Frumin</t>
   </si>
   <si>
-    <t>CCSCCSP(O)(OCC)=S</t>
-  </si>
-  <si>
     <t>Rampart</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>CCSCCSP(=S)(OC)OC  </t>
+  </si>
+  <si>
+    <t>CCOP(=S)(OCC)SCCSCC</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -598,156 +598,159 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.chemeo.com/similar?smiles=CCOP%28%3dS%29%28OCC%29SCCSCC" xr:uid="{84851EB2-91A9-4499-8B92-4C45023BC5B5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>